--- a/repswitch_practice.xlsx
+++ b/repswitch_practice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E07FD5-869B-4056-A358-93E20D605D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85E88F2-297C-4403-85EA-7F16D1F455B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="660" windowWidth="13620" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -33,29 +33,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="44">
   <si>
     <t>image</t>
   </si>
   <si>
-    <t>ratón</t>
-  </si>
-  <si>
     <t>mesa</t>
   </si>
   <si>
     <t>sirena</t>
   </si>
   <si>
-    <t>muñeca</t>
-  </si>
-  <si>
     <t>girasol</t>
   </si>
   <si>
-    <t>cazador</t>
-  </si>
-  <si>
     <t>bruja</t>
   </si>
   <si>
@@ -92,9 +83,6 @@
     <t>repSwitch</t>
   </si>
   <si>
-    <t>stimulus</t>
-  </si>
-  <si>
     <t>nontarget</t>
   </si>
   <si>
@@ -104,72 +92,21 @@
     <t>T</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_1.png</t>
-  </si>
-  <si>
     <t>REPSWITCH1/PICTURE_110.png</t>
   </si>
   <si>
     <t>REPSWITCH1/PICTURE_12.png</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_128.png</t>
-  </si>
-  <si>
     <t>REPSWITCH1/PICTURE_141.png</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_16.png</t>
-  </si>
-  <si>
     <t>REPSWITCH1/PICTURE_184.png</t>
   </si>
   <si>
-    <t>Stim1_Set1</t>
-  </si>
-  <si>
-    <t>Stim2_Set1</t>
-  </si>
-  <si>
-    <t>Stim3_Set1</t>
-  </si>
-  <si>
-    <t>Stim4_Set1</t>
-  </si>
-  <si>
-    <t>Stim5_Set1</t>
-  </si>
-  <si>
-    <t>Stim6_Set1</t>
-  </si>
-  <si>
-    <t>Stim7_Set1</t>
-  </si>
-  <si>
-    <t>Stim1_Set3</t>
-  </si>
-  <si>
-    <t>Stim2_Set3</t>
-  </si>
-  <si>
-    <t>Stim3_Set3</t>
-  </si>
-  <si>
-    <t>Stim4_Set3</t>
-  </si>
-  <si>
-    <t>Stim5_Set3</t>
-  </si>
-  <si>
-    <t>Stim6_Set3</t>
-  </si>
-  <si>
     <t>nube</t>
   </si>
   <si>
-    <t>miel</t>
-  </si>
-  <si>
     <t>reina</t>
   </si>
   <si>
@@ -185,9 +122,6 @@
     <t>REPSWITCH1/PICTURE_599.png</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_610.png</t>
-  </si>
-  <si>
     <t>REPSWITCH1/PICTURE_614.png</t>
   </si>
   <si>
@@ -207,6 +141,30 @@
   </si>
   <si>
     <t>yellow</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_570.png</t>
+  </si>
+  <si>
+    <t>toro</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_733.png</t>
+  </si>
+  <si>
+    <t>gafas</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_612.png</t>
+  </si>
+  <si>
+    <t>rana</t>
+  </si>
+  <si>
+    <t>leñador</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_60.png</t>
   </si>
 </sst>
 </file>
@@ -296,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -326,30 +284,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <b val="0"/>
@@ -555,17 +495,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{43FE2DE5-4E34-47B2-85F0-491C1C8CAF49}" name="Table2" displayName="Table2" ref="A1:H21" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
-  <autoFilter ref="A1:H21" xr:uid="{43FE2DE5-4E34-47B2-85F0-491C1C8CAF49}"/>
-  <tableColumns count="8">
-    <tableColumn id="5" xr3:uid="{6CBB8A9A-AE86-4817-AC1A-FE40B23AB547}" name="image" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{95683CFC-6110-4DDD-B9BA-877A8BD98DCA}" name="correctAns" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{E8C28582-0617-4F06-8AC7-EFAC1D7A8D52}" name="respModal" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{23365C8F-DE7A-46FA-B3DB-084BE9F8B7B3}" name="frameColour" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{20782061-69F9-4B4A-8529-949463D1E4FC}" name="repSwitch" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{55E599A2-8042-4FC9-884D-47F74962CA7B}" name="sequence" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{43FE2DE5-4E34-47B2-85F0-491C1C8CAF49}" name="Table2" displayName="Table2" ref="A1:G21" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
+  <autoFilter ref="A1:G21" xr:uid="{43FE2DE5-4E34-47B2-85F0-491C1C8CAF49}"/>
+  <tableColumns count="7">
+    <tableColumn id="5" xr3:uid="{6CBB8A9A-AE86-4817-AC1A-FE40B23AB547}" name="image" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{95683CFC-6110-4DDD-B9BA-877A8BD98DCA}" name="correctAns" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{E8C28582-0617-4F06-8AC7-EFAC1D7A8D52}" name="respModal" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{23365C8F-DE7A-46FA-B3DB-084BE9F8B7B3}" name="frameColour" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{20782061-69F9-4B4A-8529-949463D1E4FC}" name="repSwitch" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{55E599A2-8042-4FC9-884D-47F74962CA7B}" name="sequence" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{9E8F8608-00E0-4E1F-9B24-0C65CCC094B8}" name="target"/>
-    <tableColumn id="4" xr3:uid="{7CBFC85F-32F9-427F-AA90-1998DDD7CB08}" name="stimulus" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -892,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558F9B87-26D4-45DE-8FE2-82B28F57E788}">
-  <dimension ref="A1:P97"/>
+  <dimension ref="A1:O97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -904,651 +843,587 @@
     <col min="2" max="2" width="10.109375" customWidth="1"/>
     <col min="3" max="4" width="19.5546875" customWidth="1"/>
     <col min="6" max="6" width="19.5546875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="27.44140625" customWidth="1"/>
-    <col min="11" max="12" width="10.109375" customWidth="1"/>
+    <col min="10" max="11" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="11" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="F2" s="12">
         <v>2</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="F3" s="13">
         <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F4" s="14">
         <v>1</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>37</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F5" s="13">
         <v>2</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="F6" s="12">
         <v>2</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F7" s="15">
         <v>1</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>38</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F8" s="12">
         <v>2</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F9" s="13">
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>26</v>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F10" s="12">
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F11" s="13">
         <v>2</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="L11" s="8"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F12" s="14">
         <v>2</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>39</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F13" s="13">
         <v>2</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>34</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F14" s="12">
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F15" s="15">
         <v>2</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>40</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>28</v>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F16" s="12">
         <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>35</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F17" s="13">
         <v>1</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F18" s="14">
         <v>2</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>41</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F19" s="13">
         <v>1</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F20" s="12">
         <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F21" s="15">
         <v>2</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F22"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F23"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F24"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F25"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F26"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F27"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F28"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F29"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F30"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F31"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F32"/>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.3">

--- a/repswitch_practice.xlsx
+++ b/repswitch_practice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85E88F2-297C-4403-85EA-7F16D1F455B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695004DE-9A6D-4E2C-8754-CB748F9D112D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="660" windowWidth="13620" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="600" windowWidth="13620" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="32">
   <si>
     <t>image</t>
   </si>
@@ -44,12 +44,6 @@
     <t>sirena</t>
   </si>
   <si>
-    <t>girasol</t>
-  </si>
-  <si>
-    <t>bruja</t>
-  </si>
-  <si>
     <t>speak</t>
   </si>
   <si>
@@ -98,42 +92,18 @@
     <t>REPSWITCH1/PICTURE_12.png</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_141.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_184.png</t>
-  </si>
-  <si>
     <t>nube</t>
   </si>
   <si>
     <t>reina</t>
   </si>
   <si>
-    <t>ladrón</t>
-  </si>
-  <si>
-    <t>tejado</t>
-  </si>
-  <si>
-    <t>cajón</t>
-  </si>
-  <si>
     <t>REPSWITCH1/PICTURE_599.png</t>
   </si>
   <si>
     <t>REPSWITCH1/PICTURE_614.png</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_631.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_66.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_661.png</t>
-  </si>
-  <si>
     <t>frameColour</t>
   </si>
   <si>
@@ -159,12 +129,6 @@
   </si>
   <si>
     <t>rana</t>
-  </si>
-  <si>
-    <t>leñador</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_60.png</t>
   </si>
 </sst>
 </file>
@@ -284,7 +248,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,8 +461,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{43FE2DE5-4E34-47B2-85F0-491C1C8CAF49}" name="Table2" displayName="Table2" ref="A1:G21" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
-  <autoFilter ref="A1:G21" xr:uid="{43FE2DE5-4E34-47B2-85F0-491C1C8CAF49}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{43FE2DE5-4E34-47B2-85F0-491C1C8CAF49}" name="Table2" displayName="Table2" ref="A1:G25" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
+  <autoFilter ref="A1:G25" xr:uid="{43FE2DE5-4E34-47B2-85F0-491C1C8CAF49}"/>
   <tableColumns count="7">
     <tableColumn id="5" xr3:uid="{6CBB8A9A-AE86-4817-AC1A-FE40B23AB547}" name="image" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{95683CFC-6110-4DDD-B9BA-877A8BD98DCA}" name="correctAns" dataDxfId="4"/>
@@ -834,7 +800,7 @@
   <dimension ref="A1:O97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -851,68 +817,68 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F2" s="12">
         <v>2</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3" s="13">
         <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
@@ -921,25 +887,25 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F4" s="14">
         <v>1</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
@@ -948,25 +914,25 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F5" s="13">
         <v>2</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
@@ -975,25 +941,25 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F6" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
@@ -1002,25 +968,25 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F7" s="15">
         <v>1</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -1029,25 +995,25 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="12">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="12">
-        <v>2</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
@@ -1056,25 +1022,25 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F9" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
@@ -1082,26 +1048,26 @@
       <c r="O9" s="8"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
-        <v>38</v>
+      <c r="A10" t="s">
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F10" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
@@ -1110,25 +1076,25 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F11" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
@@ -1137,25 +1103,25 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F12" s="14">
         <v>2</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
@@ -1164,25 +1130,25 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="13">
-        <v>2</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
@@ -1191,25 +1157,25 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F14" s="12">
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
@@ -1218,25 +1184,25 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="E15" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F15" s="15">
         <v>2</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
@@ -1244,26 +1210,26 @@
       <c r="O15" s="8"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>42</v>
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F16" s="12">
         <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
@@ -1272,25 +1238,25 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>42</v>
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="F17" s="13">
         <v>1</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
@@ -1299,25 +1265,25 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F18" s="14">
         <v>2</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
@@ -1326,84 +1292,164 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" s="13">
         <v>1</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="F20" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F21" s="15">
         <v>2</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F22"/>
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="17">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F23"/>
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="17">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F24"/>
+      <c r="A24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="15">
+        <v>1</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F25"/>
+      <c r="A25" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="15">
+        <v>1</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F26"/>

--- a/repswitch_practice.xlsx
+++ b/repswitch_practice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695004DE-9A6D-4E2C-8754-CB748F9D112D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187EE82D-A91A-433F-8841-B76C0632F3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="600" windowWidth="13620" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -104,9 +104,6 @@
     <t>REPSWITCH1/PICTURE_614.png</t>
   </si>
   <si>
-    <t>frameColour</t>
-  </si>
-  <si>
     <t>blue</t>
   </si>
   <si>
@@ -129,6 +126,9 @@
   </si>
   <si>
     <t>rana</t>
+  </si>
+  <si>
+    <t>frameCol</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
     <tableColumn id="5" xr3:uid="{6CBB8A9A-AE86-4817-AC1A-FE40B23AB547}" name="image" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{95683CFC-6110-4DDD-B9BA-877A8BD98DCA}" name="correctAns" dataDxfId="4"/>
     <tableColumn id="7" xr3:uid="{E8C28582-0617-4F06-8AC7-EFAC1D7A8D52}" name="respModal" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{23365C8F-DE7A-46FA-B3DB-084BE9F8B7B3}" name="frameColour" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{23365C8F-DE7A-46FA-B3DB-084BE9F8B7B3}" name="frameCol" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{20782061-69F9-4B4A-8529-949463D1E4FC}" name="repSwitch" dataDxfId="1"/>
     <tableColumn id="1" xr3:uid="{55E599A2-8042-4FC9-884D-47F74962CA7B}" name="sequence" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{9E8F8608-00E0-4E1F-9B24-0C65CCC094B8}" name="target"/>
@@ -800,7 +800,7 @@
   <dimension ref="A1:O97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -823,7 +823,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>13</v>
@@ -837,16 +837,16 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
         <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -860,16 +860,16 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
         <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>6</v>
@@ -896,7 +896,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>15</v>
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>14</v>
@@ -950,7 +950,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>6</v>
@@ -968,16 +968,16 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>15</v>
@@ -1004,7 +1004,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>14</v>
@@ -1031,7 +1031,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>8</v>
@@ -1049,16 +1049,16 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
         <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>14</v>
@@ -1076,16 +1076,16 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
         <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>8</v>
@@ -1112,7 +1112,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>15</v>
@@ -1139,7 +1139,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>14</v>
@@ -1166,7 +1166,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>8</v>
@@ -1184,16 +1184,16 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>15</v>
@@ -1211,16 +1211,16 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
         <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>14</v>
@@ -1238,16 +1238,16 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
         <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>6</v>
@@ -1274,7 +1274,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>15</v>
@@ -1292,16 +1292,16 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
         <v>30</v>
-      </c>
-      <c r="B19" t="s">
-        <v>31</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>14</v>
@@ -1315,16 +1315,16 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
         <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>6</v>
@@ -1347,7 +1347,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>15</v>
@@ -1370,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>14</v>
@@ -1393,7 +1393,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>8</v>
@@ -1416,7 +1416,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>15</v>
@@ -1430,16 +1430,16 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>15</v>

--- a/repswitch_practice.xlsx
+++ b/repswitch_practice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187EE82D-A91A-433F-8841-B76C0632F3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C9C2EC-9BF6-48F3-9F0C-B980A9473B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/repswitch_practice.xlsx
+++ b/repswitch_practice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C9C2EC-9BF6-48F3-9F0C-B980A9473B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BA1BF9-D605-4866-8419-C78637F25400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,7 +128,7 @@
     <t>rana</t>
   </si>
   <si>
-    <t>frameCol</t>
+    <t>frameColor</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
     <tableColumn id="5" xr3:uid="{6CBB8A9A-AE86-4817-AC1A-FE40B23AB547}" name="image" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{95683CFC-6110-4DDD-B9BA-877A8BD98DCA}" name="correctAns" dataDxfId="4"/>
     <tableColumn id="7" xr3:uid="{E8C28582-0617-4F06-8AC7-EFAC1D7A8D52}" name="respModal" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{23365C8F-DE7A-46FA-B3DB-084BE9F8B7B3}" name="frameCol" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{23365C8F-DE7A-46FA-B3DB-084BE9F8B7B3}" name="frameColor" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{20782061-69F9-4B4A-8529-949463D1E4FC}" name="repSwitch" dataDxfId="1"/>
     <tableColumn id="1" xr3:uid="{55E599A2-8042-4FC9-884D-47F74962CA7B}" name="sequence" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{9E8F8608-00E0-4E1F-9B24-0C65CCC094B8}" name="target"/>
@@ -800,7 +800,7 @@
   <dimension ref="A1:O97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/repswitch_practice.xlsx
+++ b/repswitch_practice.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BA1BF9-D605-4866-8419-C78637F25400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC1A6FF-C412-478A-8638-886545A5651A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -86,69 +86,62 @@
     <t>T</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_110.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_12.png</t>
-  </si>
-  <si>
     <t>nube</t>
   </si>
   <si>
     <t>reina</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_599.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_614.png</t>
-  </si>
-  <si>
     <t>blue</t>
   </si>
   <si>
     <t>yellow</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_570.png</t>
-  </si>
-  <si>
     <t>toro</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_733.png</t>
-  </si>
-  <si>
     <t>gafas</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_612.png</t>
-  </si>
-  <si>
     <t>rana</t>
   </si>
   <si>
     <t>frameColor</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Practice/PICTURE_612.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Practice/PICTURE_599.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Practice/PICTURE_110.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Practice/PICTURE_570.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Practice/PICTURE_12.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Practice/PICTURE_733.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Practice/PICTURE_614.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="161"/>
     </font>
     <font>
       <b/>
@@ -218,37 +211,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -461,16 +450,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{43FE2DE5-4E34-47B2-85F0-491C1C8CAF49}" name="Table2" displayName="Table2" ref="A1:G25" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
-  <autoFilter ref="A1:G25" xr:uid="{43FE2DE5-4E34-47B2-85F0-491C1C8CAF49}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{09CB0C1D-E992-4A8F-B5D4-645337AF1E20}" name="Table22" displayName="Table22" ref="A1:G25" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
+  <autoFilter ref="A1:G25" xr:uid="{09CB0C1D-E992-4A8F-B5D4-645337AF1E20}"/>
   <tableColumns count="7">
-    <tableColumn id="5" xr3:uid="{6CBB8A9A-AE86-4817-AC1A-FE40B23AB547}" name="image" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{95683CFC-6110-4DDD-B9BA-877A8BD98DCA}" name="correctAns" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{E8C28582-0617-4F06-8AC7-EFAC1D7A8D52}" name="respModal" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{23365C8F-DE7A-46FA-B3DB-084BE9F8B7B3}" name="frameColor" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{20782061-69F9-4B4A-8529-949463D1E4FC}" name="repSwitch" dataDxfId="1"/>
-    <tableColumn id="1" xr3:uid="{55E599A2-8042-4FC9-884D-47F74962CA7B}" name="sequence" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{9E8F8608-00E0-4E1F-9B24-0C65CCC094B8}" name="target"/>
+    <tableColumn id="5" xr3:uid="{CA7B4B6A-D19E-43B2-A79C-736C88963C21}" name="image" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{50B084C3-589E-4E20-ACCC-F45A1783321A}" name="correctAns" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{21237610-6E80-400E-B3E9-C9E42523B2B9}" name="respModal" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{72C4AB95-60D8-4073-8B12-0C4F0B348383}" name="frameColor" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{3BAC3997-0DDA-420F-ABB5-EE1419101B60}" name="repSwitch" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{954CFCEB-7440-427D-9C26-8ECEEDB2550F}" name="sequence" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{2EA8BD9B-2F41-42F3-99F5-2FF95D34EC8E}" name="target"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -796,23 +785,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558F9B87-26D4-45DE-8FE2-82B28F57E788}">
-  <dimension ref="A1:O97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81D9F02-B765-47E3-B997-763EA5DBA580}">
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" customWidth="1"/>
-    <col min="3" max="4" width="19.5546875" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" style="16" customWidth="1"/>
-    <col min="10" max="11" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="35.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -823,98 +808,90 @@
         <v>10</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="11">
         <v>2</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>21</v>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>1</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>1</v>
@@ -923,25 +900,21 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <v>2</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1</v>
@@ -950,52 +923,44 @@
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>25</v>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>1</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>2</v>
@@ -1004,25 +969,21 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>2</v>
@@ -1031,106 +992,90 @@
         <v>4</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <v>2</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>2</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="12">
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <v>2</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>1</v>
@@ -1139,25 +1084,21 @@
         <v>3</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="12">
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1</v>
@@ -1166,202 +1107,182 @@
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="14">
         <v>2</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="11">
         <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="12">
         <v>1</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="13">
         <v>2</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="12">
         <v>1</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="11">
         <v>2</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>21</v>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="14">
         <v>2</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>2</v>
@@ -1370,21 +1291,21 @@
         <v>3</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="15">
         <v>2</v>
       </c>
       <c r="G22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>2</v>
@@ -1393,279 +1314,63 @@
         <v>4</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="15">
         <v>2</v>
       </c>
       <c r="G23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="15">
-        <v>1</v>
-      </c>
-      <c r="G24" s="10" t="s">
+      <c r="F24" s="14">
+        <v>1</v>
+      </c>
+      <c r="G24" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
-        <v>25</v>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="15">
-        <v>1</v>
-      </c>
-      <c r="G25" s="10" t="s">
+      <c r="F25" s="14">
+        <v>1</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F26"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F27"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F28"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F29"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F30"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F31"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F32"/>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F33"/>
-    </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F34"/>
-    </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F35"/>
-    </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F36"/>
-    </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F37"/>
-    </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F38"/>
-    </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F39"/>
-    </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F40"/>
-    </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F41"/>
-    </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F42"/>
-    </row>
-    <row r="43" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F43"/>
-    </row>
-    <row r="44" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F44"/>
-    </row>
-    <row r="45" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F45"/>
-    </row>
-    <row r="46" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F46"/>
-    </row>
-    <row r="47" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F47"/>
-    </row>
-    <row r="48" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F48"/>
-    </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F49"/>
-    </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F50"/>
-    </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F51"/>
-    </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F52"/>
-    </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F53"/>
-    </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F54"/>
-    </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F55"/>
-    </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F56"/>
-    </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F57"/>
-    </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F58"/>
-    </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F59"/>
-    </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F60"/>
-    </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F61"/>
-    </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F62"/>
-    </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F63"/>
-    </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F64"/>
-    </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F65"/>
-    </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F66"/>
-    </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F67"/>
-    </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F68"/>
-    </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F69"/>
-    </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F70"/>
-    </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F71"/>
-    </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F72"/>
-    </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F73"/>
-    </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F74"/>
-    </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F75"/>
-    </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F76"/>
-    </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F77"/>
-    </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F78"/>
-    </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F79"/>
-    </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F80"/>
-    </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F81"/>
-    </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F82"/>
-    </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F83"/>
-    </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F84"/>
-    </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F85"/>
-    </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F86"/>
-    </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F87"/>
-    </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F88"/>
-    </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F89"/>
-    </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F90"/>
-    </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F91"/>
-    </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F92"/>
-    </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F93"/>
-    </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F94"/>
-    </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F95"/>
-    </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F96"/>
-    </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F97"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/repswitch_practice.xlsx
+++ b/repswitch_practice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC1A6FF-C412-478A-8638-886545A5651A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5422D117-8681-457B-BB60-E84BD7389D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10632" yWindow="600" windowWidth="12408" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="36">
   <si>
     <t>image</t>
   </si>
@@ -129,6 +129,18 @@
   </si>
   <si>
     <t>REPSWITCH1_Practice/PICTURE_614.png</t>
+  </si>
+  <si>
+    <t>modalSymb</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Practice/lips.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1_Practice/keyboard.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -244,7 +256,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
     <dxf>
       <font>
         <b val="0"/>
@@ -287,6 +299,14 @@
         <patternFill patternType="solid">
           <fgColor theme="6" tint="0.79998168889431442"/>
           <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -450,13 +470,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{09CB0C1D-E992-4A8F-B5D4-645337AF1E20}" name="Table22" displayName="Table22" ref="A1:G25" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
-  <autoFilter ref="A1:G25" xr:uid="{09CB0C1D-E992-4A8F-B5D4-645337AF1E20}"/>
-  <tableColumns count="7">
-    <tableColumn id="5" xr3:uid="{CA7B4B6A-D19E-43B2-A79C-736C88963C21}" name="image" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{50B084C3-589E-4E20-ACCC-F45A1783321A}" name="correctAns" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{21237610-6E80-400E-B3E9-C9E42523B2B9}" name="respModal" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{72C4AB95-60D8-4073-8B12-0C4F0B348383}" name="frameColor" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{09CB0C1D-E992-4A8F-B5D4-645337AF1E20}" name="Table22" displayName="Table22" ref="A1:H25" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
+  <autoFilter ref="A1:H25" xr:uid="{09CB0C1D-E992-4A8F-B5D4-645337AF1E20}"/>
+  <tableColumns count="8">
+    <tableColumn id="5" xr3:uid="{CA7B4B6A-D19E-43B2-A79C-736C88963C21}" name="image" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{50B084C3-589E-4E20-ACCC-F45A1783321A}" name="correctAns" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{21237610-6E80-400E-B3E9-C9E42523B2B9}" name="respModal" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{72C4AB95-60D8-4073-8B12-0C4F0B348383}" name="frameColor" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{55A783E5-B662-42C8-93CD-ED46C15252C3}" name="modalSymb" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{3BAC3997-0DDA-420F-ABB5-EE1419101B60}" name="repSwitch" dataDxfId="1"/>
     <tableColumn id="1" xr3:uid="{954CFCEB-7440-427D-9C26-8ECEEDB2550F}" name="sequence" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{2EA8BD9B-2F41-42F3-99F5-2FF95D34EC8E}" name="target"/>
@@ -466,9 +487,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -506,9 +527,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -541,26 +562,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -593,26 +597,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -786,18 +773,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81D9F02-B765-47E3-B997-763EA5DBA580}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -811,16 +799,19 @@
         <v>24</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -833,17 +824,20 @@
       <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="11">
-        <v>2</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="11">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -856,17 +850,20 @@
       <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="12">
-        <v>2</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="12">
+        <v>2</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>26</v>
       </c>
@@ -879,17 +876,20 @@
       <c r="D4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="13">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="13">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -902,17 +902,20 @@
       <c r="D5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="12">
-        <v>2</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="12">
+        <v>2</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -925,17 +928,20 @@
       <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="11">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="11">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>28</v>
       </c>
@@ -949,16 +955,19 @@
         <v>19</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="14">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="14">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -971,17 +980,20 @@
       <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="11">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="11">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -995,16 +1007,19 @@
         <v>19</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="12">
-        <v>2</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="12">
+        <v>2</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1017,17 +1032,20 @@
       <c r="D10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="11">
-        <v>2</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="11">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1040,17 +1058,20 @@
       <c r="D11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="12">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="12">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
@@ -1058,22 +1079,25 @@
         <v>18</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="13">
-        <v>2</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="13">
+        <v>2</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1086,17 +1110,23 @@
       <c r="D13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="12">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="12">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1109,17 +1139,20 @@
       <c r="D14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="11">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="11">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
@@ -1133,16 +1166,19 @@
         <v>20</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="14">
-        <v>2</v>
-      </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="14">
+        <v>2</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1155,17 +1191,20 @@
       <c r="D16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="11">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="11">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1179,16 +1218,19 @@
         <v>19</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="12">
-        <v>1</v>
-      </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="12">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>31</v>
       </c>
@@ -1201,17 +1243,20 @@
       <c r="D18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="13">
-        <v>2</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="13">
+        <v>2</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1225,16 +1270,19 @@
         <v>19</v>
       </c>
       <c r="E19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="12">
-        <v>1</v>
-      </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="12">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1247,17 +1295,20 @@
       <c r="D20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="11">
-        <v>2</v>
-      </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="11">
+        <v>2</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>26</v>
       </c>
@@ -1271,16 +1322,19 @@
         <v>19</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="14">
-        <v>2</v>
-      </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="14">
+        <v>2</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1293,17 +1347,20 @@
       <c r="D22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="15">
-        <v>2</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="G22" s="15">
+        <v>2</v>
+      </c>
+      <c r="H22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1316,17 +1373,20 @@
       <c r="D23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="15">
-        <v>2</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="G23" s="15">
+        <v>2</v>
+      </c>
+      <c r="H23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>31</v>
       </c>
@@ -1340,16 +1400,19 @@
         <v>20</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="14">
-        <v>1</v>
-      </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="14">
+        <v>1</v>
+      </c>
+      <c r="H24" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>28</v>
       </c>
@@ -1363,19 +1426,23 @@
         <v>19</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="14">
-        <v>1</v>
-      </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="14">
+        <v>1</v>
+      </c>
+      <c r="H25" s="9" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/repswitch_practice.xlsx
+++ b/repswitch_practice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5422D117-8681-457B-BB60-E84BD7389D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E29922-4EBD-46D6-A60B-E4C6365F3B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10632" yWindow="600" windowWidth="12408" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -776,13 +776,14 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">

--- a/repswitch_practice.xlsx
+++ b/repswitch_practice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E29922-4EBD-46D6-A60B-E4C6365F3B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5A30CD-B050-4D39-B339-74BE1BEF6774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10632" yWindow="600" windowWidth="12408" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="7" r:id="rId1"/>
@@ -44,12 +44,6 @@
     <t>sirena</t>
   </si>
   <si>
-    <t>speak</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>NT</t>
   </si>
   <si>
@@ -141,6 +135,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>SPEAK</t>
+  </si>
+  <si>
+    <t>TYPE</t>
   </si>
 </sst>
 </file>
@@ -776,13 +776,13 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -791,652 +791,652 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="11">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="11">
-        <v>2</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G3" s="12">
         <v>2</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="E4" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G4" s="13">
         <v>1</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="12">
+        <v>2</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="12">
-        <v>2</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G6" s="11">
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G7" s="14">
         <v>1</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="11">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G9" s="12">
         <v>2</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G10" s="11">
         <v>2</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G11" s="12">
         <v>1</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G12" s="13">
         <v>2</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="12">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="J13" t="s">
         <v>33</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="12">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J13" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G14" s="11">
         <v>1</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G15" s="14">
         <v>2</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G16" s="11">
         <v>1</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="G17" s="12">
         <v>1</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="F18" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G18" s="13">
         <v>2</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G19" s="12">
         <v>1</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="G20" s="11">
         <v>2</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="E21" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G21" s="14">
         <v>2</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="15">
+        <v>2</v>
+      </c>
+      <c r="H22" t="s">
         <v>3</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="15">
-        <v>2</v>
-      </c>
-      <c r="H22" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G23" s="15">
         <v>2</v>
       </c>
       <c r="H23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="F24" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G24" s="14">
         <v>1</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G25" s="14">
         <v>1</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/repswitch_practice.xlsx
+++ b/repswitch_practice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5A30CD-B050-4D39-B339-74BE1BEF6774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52241B2-6FEB-4220-95F7-D7B1DBB51231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -776,7 +776,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/repswitch_practice.xlsx
+++ b/repswitch_practice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52241B2-6FEB-4220-95F7-D7B1DBB51231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018A2283-5A6A-4354-AC6C-070266E20E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12984" yWindow="600" windowWidth="9228" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="7" r:id="rId1"/>
@@ -86,9 +86,6 @@
     <t>reina</t>
   </si>
   <si>
-    <t>blue</t>
-  </si>
-  <si>
     <t>yellow</t>
   </si>
   <si>
@@ -141,6 +138,9 @@
   </si>
   <si>
     <t>TYPE</t>
+  </si>
+  <si>
+    <t>indigo</t>
   </si>
 </sst>
 </file>
@@ -776,7 +776,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -797,10 +797,10 @@
         <v>8</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>11</v>
@@ -814,19 +814,19 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
@@ -840,19 +840,19 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>4</v>
@@ -866,19 +866,19 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="E4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>13</v>
@@ -892,19 +892,19 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -918,19 +918,19 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>4</v>
@@ -944,19 +944,19 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>13</v>
@@ -970,19 +970,19 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>12</v>
@@ -996,19 +996,19 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>6</v>
@@ -1022,19 +1022,19 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E10" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>12</v>
@@ -1048,19 +1048,19 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>6</v>
@@ -1074,19 +1074,19 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>13</v>
@@ -1100,19 +1100,19 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>12</v>
@@ -1124,24 +1124,24 @@
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E14" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>6</v>
@@ -1155,19 +1155,19 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>13</v>
@@ -1181,19 +1181,19 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>12</v>
@@ -1207,19 +1207,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="E17" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>4</v>
@@ -1233,19 +1233,19 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>13</v>
@@ -1259,19 +1259,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="E19" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>12</v>
@@ -1285,19 +1285,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E20" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>4</v>
@@ -1311,19 +1311,19 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>13</v>
@@ -1337,19 +1337,19 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>12</v>
@@ -1363,19 +1363,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="E23" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>6</v>
@@ -1389,19 +1389,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>13</v>
@@ -1415,19 +1415,19 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="E25" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>13</v>

--- a/repswitch_practice.xlsx
+++ b/repswitch_practice.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018A2283-5A6A-4354-AC6C-070266E20E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A555CB6-0FD3-44C2-8735-843B02EFE690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12984" yWindow="600" windowWidth="9228" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="7" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
+    <sheet name="old" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="33">
   <si>
     <t>image</t>
   </si>
@@ -120,15 +121,6 @@
   </si>
   <si>
     <t>REPSWITCH1_Practice/PICTURE_614.png</t>
-  </si>
-  <si>
-    <t>modalSymb</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Practice/lips.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1_Practice/keyboard.png</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -202,7 +194,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -219,11 +211,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -252,11 +268,88 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -299,14 +392,6 @@
         <patternFill patternType="solid">
           <fgColor theme="6" tint="0.79998168889431442"/>
           <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -470,16 +555,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{09CB0C1D-E992-4A8F-B5D4-645337AF1E20}" name="Table22" displayName="Table22" ref="A1:H25" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
-  <autoFilter ref="A1:H25" xr:uid="{09CB0C1D-E992-4A8F-B5D4-645337AF1E20}"/>
-  <tableColumns count="8">
-    <tableColumn id="5" xr3:uid="{CA7B4B6A-D19E-43B2-A79C-736C88963C21}" name="image" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{50B084C3-589E-4E20-ACCC-F45A1783321A}" name="correctAns" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{21237610-6E80-400E-B3E9-C9E42523B2B9}" name="respModal" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{72C4AB95-60D8-4073-8B12-0C4F0B348383}" name="frameColor" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{55A783E5-B662-42C8-93CD-ED46C15252C3}" name="modalSymb" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{3BAC3997-0DDA-420F-ABB5-EE1419101B60}" name="repSwitch" dataDxfId="1"/>
-    <tableColumn id="1" xr3:uid="{954CFCEB-7440-427D-9C26-8ECEEDB2550F}" name="sequence" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{213C0CC5-6914-4399-B3C1-A90E179252FE}" name="Table2" displayName="Table2" ref="A1:D13" totalsRowShown="0">
+  <autoFilter ref="A1:D13" xr:uid="{213C0CC5-6914-4399-B3C1-A90E179252FE}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{629849F4-3A2A-4D5B-A2C5-264DDC79A914}" name="image" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{0FDBE280-1F5E-47D9-8227-81AC2D3F6D52}" name="correctAns"/>
+    <tableColumn id="3" xr3:uid="{1D69F244-0C73-4943-B1B7-262356E90335}" name="respModal" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{0820FD0A-9F21-41B9-9BD6-7EC1B62E4B01}" name="frameColor"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{09CB0C1D-E992-4A8F-B5D4-645337AF1E20}" name="Table22" displayName="Table22" ref="A1:G25" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
+  <autoFilter ref="A1:G25" xr:uid="{09CB0C1D-E992-4A8F-B5D4-645337AF1E20}"/>
+  <tableColumns count="7">
+    <tableColumn id="5" xr3:uid="{CA7B4B6A-D19E-43B2-A79C-736C88963C21}" name="image" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{50B084C3-589E-4E20-ACCC-F45A1783321A}" name="correctAns" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{21237610-6E80-400E-B3E9-C9E42523B2B9}" name="respModal" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{72C4AB95-60D8-4073-8B12-0C4F0B348383}" name="frameColor" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{3BAC3997-0DDA-420F-ABB5-EE1419101B60}" name="repSwitch" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{954CFCEB-7440-427D-9C26-8ECEEDB2550F}" name="sequence" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{2EA8BD9B-2F41-42F3-99F5-2FF95D34EC8E}" name="target"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -772,21 +869,227 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81D9F02-B765-47E3-B997-763EA5DBA580}">
-  <dimension ref="A1:J25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6FA7BD-C88A-4DA5-A725-535459E287DD}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection sqref="A1:D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81D9F02-B765-47E3-B997-763EA5DBA580}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -800,19 +1103,16 @@
         <v>21</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -820,25 +1120,22 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="11">
-        <v>2</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="F2" s="11">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -846,25 +1143,22 @@
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="12">
-        <v>2</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="F3" s="12">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>23</v>
       </c>
@@ -872,25 +1166,22 @@
         <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="13">
-        <v>1</v>
-      </c>
-      <c r="H4" s="7" t="s">
+      <c r="F4" s="13">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -898,25 +1189,22 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="12">
-        <v>2</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="F5" s="12">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -924,25 +1212,22 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="11">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="F6" s="11">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>25</v>
       </c>
@@ -950,25 +1235,22 @@
         <v>18</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="14">
-        <v>1</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="F7" s="14">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -976,25 +1258,22 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="11">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="F8" s="11">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1002,25 +1281,22 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="12">
-        <v>2</v>
-      </c>
-      <c r="H9" s="4" t="s">
+      <c r="F9" s="12">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1028,25 +1304,22 @@
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="11">
-        <v>2</v>
-      </c>
-      <c r="H10" s="2" t="s">
+      <c r="F10" s="11">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1054,25 +1327,22 @@
         <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="12">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4" t="s">
+      <c r="F11" s="12">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
@@ -1080,25 +1350,22 @@
         <v>16</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="13">
-        <v>2</v>
-      </c>
-      <c r="H12" s="7" t="s">
+      <c r="F12" s="13">
+        <v>2</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1106,28 +1373,25 @@
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="12">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4" t="s">
+      <c r="F13" s="12">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1135,25 +1399,22 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="11">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="s">
+      <c r="F14" s="11">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>25</v>
       </c>
@@ -1161,25 +1422,22 @@
         <v>18</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="14">
-        <v>2</v>
-      </c>
-      <c r="H15" s="7" t="s">
+      <c r="F15" s="14">
+        <v>2</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1187,25 +1445,22 @@
         <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="11">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="s">
+      <c r="F16" s="11">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1213,25 +1468,22 @@
         <v>19</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="12">
-        <v>1</v>
-      </c>
-      <c r="H17" s="4" t="s">
+      <c r="F17" s="12">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>28</v>
       </c>
@@ -1239,25 +1491,22 @@
         <v>16</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="13">
-        <v>2</v>
-      </c>
-      <c r="H18" s="7" t="s">
+      <c r="F18" s="13">
+        <v>2</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1265,25 +1514,22 @@
         <v>20</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="12">
-        <v>1</v>
-      </c>
-      <c r="H19" s="4" t="s">
+      <c r="F19" s="12">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1291,25 +1537,22 @@
         <v>20</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="11">
-        <v>2</v>
-      </c>
-      <c r="H20" s="2" t="s">
+      <c r="F20" s="11">
+        <v>2</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>23</v>
       </c>
@@ -1317,25 +1560,22 @@
         <v>15</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="14">
-        <v>2</v>
-      </c>
-      <c r="H21" s="7" t="s">
+      <c r="F21" s="14">
+        <v>2</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1343,25 +1583,22 @@
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="15">
-        <v>2</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="F22" s="15">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1369,25 +1606,22 @@
         <v>2</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="15">
-        <v>2</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="F23" s="15">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>28</v>
       </c>
@@ -1395,25 +1629,22 @@
         <v>16</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="14">
-        <v>1</v>
-      </c>
-      <c r="H24" s="9" t="s">
+      <c r="F24" s="14">
+        <v>1</v>
+      </c>
+      <c r="G24" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>25</v>
       </c>
@@ -1421,21 +1652,18 @@
         <v>18</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="14">
-        <v>1</v>
-      </c>
-      <c r="H25" s="9" t="s">
+      <c r="F25" s="14">
+        <v>1</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>5</v>
       </c>
     </row>

--- a/repswitch_practice.xlsx
+++ b/repswitch_practice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A555CB6-0FD3-44C2-8735-843B02EFE690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41D59DD-EB4E-42E3-83C9-8C466A4CFF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -268,88 +268,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -535,6 +462,79 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -558,9 +558,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{213C0CC5-6914-4399-B3C1-A90E179252FE}" name="Table2" displayName="Table2" ref="A1:D13" totalsRowShown="0">
   <autoFilter ref="A1:D13" xr:uid="{213C0CC5-6914-4399-B3C1-A90E179252FE}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{629849F4-3A2A-4D5B-A2C5-264DDC79A914}" name="image" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{629849F4-3A2A-4D5B-A2C5-264DDC79A914}" name="image" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{0FDBE280-1F5E-47D9-8227-81AC2D3F6D52}" name="correctAns"/>
-    <tableColumn id="3" xr3:uid="{1D69F244-0C73-4943-B1B7-262356E90335}" name="respModal" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{1D69F244-0C73-4943-B1B7-262356E90335}" name="respModal" dataDxfId="10"/>
     <tableColumn id="4" xr3:uid="{0820FD0A-9F21-41B9-9BD6-7EC1B62E4B01}" name="frameColor"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -568,15 +568,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{09CB0C1D-E992-4A8F-B5D4-645337AF1E20}" name="Table22" displayName="Table22" ref="A1:G25" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{09CB0C1D-E992-4A8F-B5D4-645337AF1E20}" name="Table22" displayName="Table22" ref="A1:G25" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
   <autoFilter ref="A1:G25" xr:uid="{09CB0C1D-E992-4A8F-B5D4-645337AF1E20}"/>
   <tableColumns count="7">
-    <tableColumn id="5" xr3:uid="{CA7B4B6A-D19E-43B2-A79C-736C88963C21}" name="image" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{50B084C3-589E-4E20-ACCC-F45A1783321A}" name="correctAns" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{21237610-6E80-400E-B3E9-C9E42523B2B9}" name="respModal" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{72C4AB95-60D8-4073-8B12-0C4F0B348383}" name="frameColor" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{3BAC3997-0DDA-420F-ABB5-EE1419101B60}" name="repSwitch" dataDxfId="3"/>
-    <tableColumn id="1" xr3:uid="{954CFCEB-7440-427D-9C26-8ECEEDB2550F}" name="sequence" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{CA7B4B6A-D19E-43B2-A79C-736C88963C21}" name="image" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{50B084C3-589E-4E20-ACCC-F45A1783321A}" name="correctAns" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{21237610-6E80-400E-B3E9-C9E42523B2B9}" name="respModal" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{72C4AB95-60D8-4073-8B12-0C4F0B348383}" name="frameColor" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{3BAC3997-0DDA-420F-ABB5-EE1419101B60}" name="repSwitch" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{954CFCEB-7440-427D-9C26-8ECEEDB2550F}" name="sequence" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{2EA8BD9B-2F41-42F3-99F5-2FF95D34EC8E}" name="target"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -873,7 +873,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1048,7 +1048,7 @@
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">

--- a/repswitch_practice.xlsx
+++ b/repswitch_practice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41D59DD-EB4E-42E3-83C9-8C466A4CFF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D541B22-798A-4D46-8A61-65C66F5C7E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -873,7 +873,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/repswitch_practice.xlsx
+++ b/repswitch_practice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D541B22-798A-4D46-8A61-65C66F5C7E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF38B27-2D16-4C10-97EC-D5B0190DCDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16080" yWindow="600" windowWidth="6960" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="34">
   <si>
     <t>image</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>indigo</t>
+  </si>
+  <si>
+    <t>darkblue</t>
   </si>
 </sst>
 </file>
@@ -872,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6FA7BD-C88A-4DA5-A725-535459E287DD}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -908,7 +911,7 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -936,7 +939,7 @@
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -950,7 +953,7 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -978,7 +981,7 @@
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1006,7 +1009,7 @@
         <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1034,7 +1037,7 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">

--- a/repswitch_practice.xlsx
+++ b/repswitch_practice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF38B27-2D16-4C10-97EC-D5B0190DCDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60531B9-86F1-4781-B16F-7A8EA3753822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="600" windowWidth="6960" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="35">
   <si>
     <t>image</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>darkblue</t>
+  </si>
+  <si>
+    <t>gold</t>
   </si>
 </sst>
 </file>
@@ -925,7 +928,7 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -967,7 +970,7 @@
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -995,7 +998,7 @@
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1023,7 +1026,7 @@
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1051,7 +1054,7 @@
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1065,7 +1068,7 @@
         <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/repswitch_practice.xlsx
+++ b/repswitch_practice.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60531B9-86F1-4781-B16F-7A8EA3753822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88D85D7-1849-47A3-85A8-5D8E82D6C1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="37">
   <si>
     <t>image</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>gold</t>
+  </si>
+  <si>
+    <t>HABLA</t>
+  </si>
+  <si>
+    <t>TECLEA</t>
   </si>
 </sst>
 </file>
@@ -911,7 +917,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
@@ -925,7 +931,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
         <v>34</v>
@@ -939,7 +945,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
@@ -953,7 +959,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
         <v>33</v>
@@ -967,7 +973,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
@@ -981,7 +987,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
         <v>33</v>
@@ -995,7 +1001,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
@@ -1009,7 +1015,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
         <v>33</v>
@@ -1023,7 +1029,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
         <v>34</v>
@@ -1037,7 +1043,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
@@ -1051,7 +1057,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
         <v>34</v>
@@ -1065,7 +1071,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
         <v>34</v>
